--- a/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 0,31</t>
+          <t>-5,86; 0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,82; -0,64</t>
+          <t>-8,79; -0,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,18; -1,28</t>
+          <t>-5,87; -0,91</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,23; 30,58</t>
+          <t>-90,62; 40,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,11; -5,33</t>
+          <t>-84,47; -10,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,12; -25,85</t>
+          <t>-79,27; -18,43</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,12</t>
+          <t>-1,74; 0,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; -0,74</t>
+          <t>-2,98; -0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -0,5</t>
+          <t>-5,97; -0,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -3,9</t>
+          <t>-8,34; -3,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; -0,3</t>
+          <t>-3,48; -0,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -2,71</t>
+          <t>-5,17; -2,67</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,88; 158,53</t>
+          <t>-73,07; 127,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,07; -7,12</t>
+          <t>-71,68; -5,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-97,71; -71,49</t>
+          <t>-97,55; -73,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -7,55</t>
+          <t>-67,75; -6,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-98,1; -78,15</t>
+          <t>-97,96; -78,9</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,54</t>
+          <t>-0,89; 1,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,67</t>
+          <t>-1,42; 0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,73</t>
+          <t>-5,25; 2,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,87</t>
+          <t>-5,55; 1,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,51</t>
+          <t>-2,69; 1,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,9</t>
+          <t>-3,21; 1,02</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 41,25</t>
+          <t>-52,51; 47,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 34,06</t>
+          <t>-55,19; 33,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 42,57</t>
+          <t>-47,19; 56,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 26,81</t>
+          <t>-55,0; 30,35</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,08</t>
+          <t>-3,17; 0,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,02</t>
+          <t>-3,29; 0,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 1,12</t>
+          <t>-5,41; 0,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,14; -2,01</t>
+          <t>-8,36; -1,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; -0,16</t>
+          <t>-3,66; 0,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -1,56</t>
+          <t>-4,99; -1,51</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-93,7; 44,64</t>
+          <t>-93,32; 22,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 150,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,64; 23,72</t>
+          <t>-56,85; 14,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-85,76; -32,62</t>
+          <t>-85,04; -29,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,72; -3,38</t>
+          <t>-58,39; 7,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,75; -38,63</t>
+          <t>-83,6; -37,43</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,86</t>
+          <t>-4,02; 1,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,34</t>
+          <t>-4,41; 1,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -1,23</t>
+          <t>-9,49; -0,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,1; -2,69</t>
+          <t>-11,1; -2,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,27; -0,87</t>
+          <t>-6,0; -0,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -1,57</t>
+          <t>-6,46; -1,62</t>
         </is>
       </c>
     </row>
@@ -1344,27 +1344,27 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 278,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-88,73; -4,7</t>
+          <t>-87,48; -10,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -48,59</t>
+          <t>-100,0; -51,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-85,82; -14,0</t>
+          <t>-85,6; -18,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,46; -38,73</t>
+          <t>-91,74; -31,72</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,02</t>
+          <t>0,38; 3,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,95</t>
+          <t>-0,28; 2,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -1,16</t>
+          <t>-11,08; -0,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -7,53</t>
+          <t>-15,19; -7,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,73</t>
+          <t>-4,64; 0,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -3,21</t>
+          <t>-7,73; -3,33</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,17; -8,24</t>
+          <t>-71,95; -5,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-97,52; -72,42</t>
+          <t>-100,0; -75,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,71; 16,43</t>
+          <t>-59,34; 15,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-93,9; -60,77</t>
+          <t>-94,9; -63,7</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,46</t>
+          <t>0,07; 3,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,33</t>
+          <t>-0,85; 1,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,56</t>
+          <t>-3,3; 2,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -3,65</t>
+          <t>-8,87; -3,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,6</t>
+          <t>-1,05; 2,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -1,54</t>
+          <t>-4,54; -1,65</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 1106,04</t>
+          <t>-20,53; 1098,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 502,22</t>
+          <t>-78,4; 529,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 49,33</t>
+          <t>-30,17; 39,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-82,07; -46,65</t>
+          <t>-81,51; -44,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 62,38</t>
+          <t>-18,36; 67,18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-76,51; -39,02</t>
+          <t>-75,44; -37,86</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,75</t>
+          <t>0,25; 4,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -0,66</t>
+          <t>-3,86; -0,65</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,86</t>
+          <t>2,94; 8,81</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,03</t>
+          <t>-1,84; 3,02</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,17</t>
+          <t>2,32; 5,91</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,81</t>
+          <t>-2,25; 0,74</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,32; 170,5</t>
+          <t>3,54; 162,53</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-80,85; -22,38</t>
+          <t>-79,94; -19,46</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>37,06; 173,99</t>
+          <t>40,28; 174,46</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 61,34</t>
+          <t>-23,36; 61,49</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>41,32; 145,43</t>
+          <t>39,47; 136,29</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 19,79</t>
+          <t>-38,96; 17,6</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,27; 1,26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,52</t>
+          <t>-1,71; -0,49</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,88</t>
+          <t>-1,67; 0,81</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -3,3</t>
+          <t>-5,41; -3,25</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,77</t>
+          <t>-0,71; 0,82</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,06</t>
+          <t>-3,35; -2,04</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 74,54</t>
+          <t>-12,46; 69,62</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -30,29</t>
+          <t>-70,57; -27,62</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 12,49</t>
+          <t>-19,99; 11,45</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -45,11</t>
+          <t>-63,93; -45,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 16,69</t>
+          <t>-13,38; 18,3</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-62,65; -45,22</t>
+          <t>-62,32; -43,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,12</t>
+          <t>-5,56; 0,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; -0,94</t>
+          <t>-8,78; -0,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -0,91</t>
+          <t>-5,83; -0,88</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-90,62; 40,61</t>
+          <t>-87,34; 37,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,47; -10,28</t>
+          <t>-85,7; -10,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,27; -18,43</t>
+          <t>-79,33; -14,1</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,97</t>
+          <t>-1,72; 1,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,89</t>
+          <t>-3,13; -0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -0,57</t>
+          <t>-5,88; -0,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; -3,91</t>
+          <t>-8,39; -3,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,27</t>
+          <t>-3,6; -0,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -2,67</t>
+          <t>-5,35; -2,76</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,07; 127,65</t>
+          <t>-72,98; 135,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,68; -5,55</t>
+          <t>-72,47; -9,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-97,55; -73,93</t>
+          <t>-97,41; -70,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,75; -6,13</t>
+          <t>-68,83; -8,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-97,96; -78,9</t>
+          <t>-97,98; -75,36</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,77</t>
+          <t>-0,86; 1,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,65</t>
+          <t>-1,31; 0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,84</t>
+          <t>-5,62; 2,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 1,99</t>
+          <t>-5,77; 1,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,84</t>
+          <t>-2,67; 1,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,02</t>
+          <t>-3,06; 1,18</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 47,72</t>
+          <t>-53,08; 46,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 33,02</t>
+          <t>-56,55; 28,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 56,12</t>
+          <t>-46,51; 50,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,0; 30,35</t>
+          <t>-52,11; 39,06</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,01</t>
+          <t>-3,21; 0,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,09</t>
+          <t>-3,43; -0,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 0,87</t>
+          <t>-5,46; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -1,84</t>
+          <t>-8,15; -2,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,19</t>
+          <t>-3,62; -0,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,51</t>
+          <t>-5,18; -1,55</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-93,32; 22,82</t>
+          <t>-93,68; 34,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 53,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 14,76</t>
+          <t>-55,82; 16,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-85,04; -29,72</t>
+          <t>-84,75; -33,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 7,54</t>
+          <t>-58,79; -0,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,6; -37,43</t>
+          <t>-85,3; -38,42</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,1</t>
+          <t>-4,96; 0,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,33</t>
+          <t>-4,67; 1,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -0,95</t>
+          <t>-10,02; -0,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,1; -2,95</t>
+          <t>-11,49; -2,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -0,92</t>
+          <t>-5,74; -0,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -1,62</t>
+          <t>-6,65; -1,6</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 229,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 278,5</t>
+          <t>-100,0; 194,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-87,48; -10,11</t>
+          <t>-88,2; -5,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -51,0</t>
+          <t>-100,0; -41,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-85,6; -18,54</t>
+          <t>-85,72; -10,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-91,74; -31,72</t>
+          <t>-92,08; -37,35</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,97</t>
+          <t>0,37; 4,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,59</t>
+          <t>-0,29; 2,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -0,96</t>
+          <t>-11,12; -1,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -7,35</t>
+          <t>-15,6; -7,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,7</t>
+          <t>-4,45; 0,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -3,33</t>
+          <t>-7,51; -3,1</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -5,12</t>
+          <t>-72,68; -10,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -75,86</t>
+          <t>-97,76; -74,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 15,52</t>
+          <t>-60,15; 17,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-94,9; -63,7</t>
+          <t>-93,43; -61,23</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,26</t>
+          <t>0,29; 3,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,35</t>
+          <t>-0,82; 1,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,94</t>
+          <t>-2,89; 3,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -3,67</t>
+          <t>-8,8; -3,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,74</t>
+          <t>-0,83; 2,97</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -1,65</t>
+          <t>-4,6; -1,56</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 1098,58</t>
+          <t>-9,1; 1169,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-78,4; 529,2</t>
+          <t>-79,62; 416,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 39,85</t>
+          <t>-26,53; 43,24</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-81,51; -44,41</t>
+          <t>-81,56; -45,91</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 67,18</t>
+          <t>-15,17; 73,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-75,44; -37,86</t>
+          <t>-76,45; -37,55</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,84</t>
+          <t>0,57; 4,86</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,86; -0,65</t>
+          <t>-3,79; -0,53</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,81</t>
+          <t>3,11; 9,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,02</t>
+          <t>-1,84; 2,96</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,91</t>
+          <t>2,42; 6,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,74</t>
+          <t>-2,23; 0,77</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>3,54; 162,53</t>
+          <t>10,45; 186,42</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-79,94; -19,46</t>
+          <t>-79,59; -14,32</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>40,28; 174,46</t>
+          <t>38,82; 175,58</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 61,49</t>
+          <t>-24,14; 58,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>39,47; 136,29</t>
+          <t>43,9; 138,6</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 17,6</t>
+          <t>-38,46; 17,2</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,26</t>
+          <t>-0,25; 1,25</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,71; -0,49</t>
+          <t>-1,66; -0,51</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,81</t>
+          <t>-1,6; 0,95</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -3,25</t>
+          <t>-5,28; -3,08</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,82</t>
+          <t>-0,73; 0,83</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -2,04</t>
+          <t>-3,34; -2,12</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 69,62</t>
+          <t>-11,5; 75,96</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-70,57; -27,62</t>
+          <t>-70,33; -28,53</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 11,45</t>
+          <t>-18,5; 13,65</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-63,93; -45,53</t>
+          <t>-62,47; -44,12</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 18,3</t>
+          <t>-13,81; 18,06</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-62,32; -43,77</t>
+          <t>-61,79; -45,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,41</t>
+          <t>-5,78; 0,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,78; -0,85</t>
+          <t>-8,82; -0,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,88</t>
+          <t>-6,18; -1,28</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,34; 37,05</t>
+          <t>-88,23; 30,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-85,7; -10,74</t>
+          <t>-84,11; -5,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,33; -14,1</t>
+          <t>-81,12; -25,85</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,0</t>
+          <t>-1,98; 1,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,8</t>
+          <t>-3,16; -0,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -0,62</t>
+          <t>-6,03; -0,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; -3,87</t>
+          <t>-8,54; -3,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,34</t>
+          <t>-3,49; -0,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -2,76</t>
+          <t>-5,23; -2,71</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,98; 135,84</t>
+          <t>-77,88; 158,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,47; -9,75</t>
+          <t>-73,07; -7,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-97,41; -70,68</t>
+          <t>-97,71; -71,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,83; -8,84</t>
+          <t>-68,52; -7,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-97,98; -75,36</t>
+          <t>-98,1; -78,15</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,55</t>
+          <t>-0,9; 1,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,65</t>
+          <t>-1,23; 0,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,75</t>
+          <t>-5,25; 2,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 1,76</t>
+          <t>-6,09; 1,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,68</t>
+          <t>-2,71; 1,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,18</t>
+          <t>-3,09; 0,9</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 46,11</t>
+          <t>-53,12; 41,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 28,87</t>
+          <t>-55,89; 34,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 50,93</t>
+          <t>-47,78; 42,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,11; 39,06</t>
+          <t>-56,15; 26,81</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,03</t>
+          <t>-3,29; 0,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -0,02</t>
+          <t>-3,44; 0,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 0,81</t>
+          <t>-5,38; 1,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -2,18</t>
+          <t>-8,14; -2,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; -0,03</t>
+          <t>-3,88; -0,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -1,55</t>
+          <t>-5,04; -1,56</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-93,68; 34,86</t>
+          <t>-93,7; 44,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 53,57</t>
+          <t>-100,0; 150,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 16,81</t>
+          <t>-55,64; 23,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-84,75; -33,86</t>
+          <t>-85,76; -32,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,79; -0,07</t>
+          <t>-61,72; -3,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-85,3; -38,42</t>
+          <t>-84,75; -38,63</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,77</t>
+          <t>-4,15; 0,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,06</t>
+          <t>-3,87; 1,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,02; -0,81</t>
+          <t>-10,03; -1,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -2,72</t>
+          <t>-11,1; -2,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -0,57</t>
+          <t>-6,27; -0,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -1,6</t>
+          <t>-6,54; -1,57</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 229,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 194,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-88,2; -5,24</t>
+          <t>-88,73; -4,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -41,48</t>
+          <t>-100,0; -48,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-85,72; -10,3</t>
+          <t>-85,82; -14,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,08; -37,35</t>
+          <t>-92,46; -38,73</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,01</t>
+          <t>0,4; 4,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,59</t>
+          <t>-0,24; 2,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -1,37</t>
+          <t>-10,34; -1,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,6; -7,48</t>
+          <t>-15,32; -7,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,79</t>
+          <t>-4,67; 0,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -3,1</t>
+          <t>-7,66; -3,21</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,68; -10,39</t>
+          <t>-71,17; -8,24</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-97,76; -74,39</t>
+          <t>-97,52; -72,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 17,03</t>
+          <t>-60,71; 16,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-93,43; -61,23</t>
+          <t>-93,9; -60,77</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,43</t>
+          <t>0,17; 3,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,22</t>
+          <t>-0,9; 1,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,16</t>
+          <t>-2,77; 3,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -3,59</t>
+          <t>-8,85; -3,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,97</t>
+          <t>-0,89; 2,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -1,56</t>
+          <t>-4,58; -1,54</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 1169,01</t>
+          <t>-21,63; 1106,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-79,62; 416,72</t>
+          <t>-81,56; 502,22</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 43,24</t>
+          <t>-26,0; 49,33</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-81,56; -45,91</t>
+          <t>-82,07; -46,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 73,64</t>
+          <t>-15,39; 62,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-76,45; -37,55</t>
+          <t>-76,51; -39,02</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,86</t>
+          <t>0,39; 4,75</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,53</t>
+          <t>-3,72; -0,66</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,15</t>
+          <t>2,86; 8,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,96</t>
+          <t>-1,72; 3,03</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,02</t>
+          <t>2,42; 6,17</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,77</t>
+          <t>-2,18; 0,81</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>10,45; 186,42</t>
+          <t>6,32; 170,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-79,59; -14,32</t>
+          <t>-80,85; -22,38</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>38,82; 175,58</t>
+          <t>37,06; 173,99</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 58,11</t>
+          <t>-23,68; 61,34</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>43,9; 138,6</t>
+          <t>41,32; 145,43</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 17,2</t>
+          <t>-37,8; 19,79</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,25</t>
+          <t>-0,18; 1,25</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,66; -0,51</t>
+          <t>-1,67; -0,52</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,95</t>
+          <t>-1,63; 0,88</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -3,08</t>
+          <t>-5,3; -3,3</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,83</t>
+          <t>-0,81; 0,77</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -2,12</t>
+          <t>-3,36; -2,06</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 75,96</t>
+          <t>-8,07; 74,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-70,33; -28,53</t>
+          <t>-69,15; -30,29</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 13,65</t>
+          <t>-19,29; 12,49</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-62,47; -44,12</t>
+          <t>-62,81; -45,11</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 18,06</t>
+          <t>-14,77; 16,69</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-61,79; -45,64</t>
+          <t>-62,65; -45,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; -0,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 5,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 1,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,89; 5,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,46; 83,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,69; 30,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,08</t>
+          <t>-4,04; -0,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 1,12</t>
+          <t>-7,35; -0,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; -0,16</t>
+          <t>-4,67; -0,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-65,98%</t>
+          <t>-87,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-27,74%</t>
+          <t>-50,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-35,72%</t>
+          <t>-57,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-93,7; 44,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,64; 23,72</t>
+          <t>-75,8; -12,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,72; -3,38</t>
+          <t>-77,46; -23,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -0,21</t>
+          <t>-6,87; -0,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 0,31</t>
+          <t>-5,92; 0,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 5,02</t>
+          <t>-4,77; 4,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,82; -0,64</t>
+          <t>-8,75; -0,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 1,18</t>
+          <t>-4,18; 1,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,18; -1,28</t>
+          <t>-6,03; -0,99</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-93,89; 5,87</t>
+          <t>-95,63; -1,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,23; 30,58</t>
+          <t>-90,58; 32,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 83,26</t>
+          <t>-46,55; 84,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,11; -5,33</t>
+          <t>-84,31; -8,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,69; 30,24</t>
+          <t>-55,59; 31,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,12; -25,85</t>
+          <t>-78,41; -17,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,12</t>
+          <t>-1,76; 0,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; -0,74</t>
+          <t>-3,0; -0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -0,5</t>
+          <t>-5,78; -0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -3,9</t>
+          <t>-8,24; -3,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; -0,3</t>
+          <t>-3,32; -0,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -2,71</t>
+          <t>-5,26; -2,69</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,88; 158,53</t>
+          <t>-75,68; 114,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,07; -7,12</t>
+          <t>-72,86; -2,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-97,71; -71,49</t>
+          <t>-97,44; -70,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -7,55</t>
+          <t>-65,6; -3,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-98,1; -78,15</t>
+          <t>-98,03; -74,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,54</t>
+          <t>-0,88; 1,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,67</t>
+          <t>-1,2; 0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,73</t>
+          <t>-5,52; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,87</t>
+          <t>-5,87; 2,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,51</t>
+          <t>-2,78; 1,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,9</t>
+          <t>-3,25; 0,91</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 41,25</t>
+          <t>-53,2; 46,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 34,06</t>
+          <t>-57,5; 36,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 42,57</t>
+          <t>-47,76; 57,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 26,81</t>
+          <t>-56,03; 25,74</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; -0,45</t>
+          <t>-3,72; -0,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,02</t>
+          <t>-3,32; 0,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,87</t>
+          <t>-7,22; -0,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,14; -2,01</t>
+          <t>-8,48; -2,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -0,98</t>
+          <t>-4,62; -1,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -1,56</t>
+          <t>-5,14; -1,68</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 150,68</t>
+          <t>-100,0; 98,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,8; -12,76</t>
+          <t>-74,24; -5,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-85,76; -32,62</t>
+          <t>-86,86; -35,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,46; -23,91</t>
+          <t>-77,67; -27,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,75; -38,63</t>
+          <t>-85,97; -39,21</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,86</t>
+          <t>-4,65; 0,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,34</t>
+          <t>-4,35; 1,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -1,23</t>
+          <t>-9,91; -1,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,1; -2,69</t>
+          <t>-11,14; -2,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,27; -0,87</t>
+          <t>-6,47; -0,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -1,57</t>
+          <t>-6,8; -1,67</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 248,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 275,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-88,73; -4,7</t>
+          <t>-89,13; -9,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -48,59</t>
+          <t>-96,35; -50,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-85,82; -14,0</t>
+          <t>-87,59; -16,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-92,46; -38,73</t>
+          <t>-92,57; -42,46</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,02</t>
+          <t>0,37; 3,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,95</t>
+          <t>-0,28; 2,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -1,16</t>
+          <t>-10,95; -1,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -7,53</t>
+          <t>-15,22; -7,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,73</t>
+          <t>-4,87; 0,65</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -3,21</t>
+          <t>-7,72; -3,15</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,17; -8,24</t>
+          <t>-71,86; -9,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-97,52; -72,42</t>
+          <t>-97,71; -72,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,71; 16,43</t>
+          <t>-60,61; 16,16</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-93,9; -60,77</t>
+          <t>-93,71; -58,05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,46</t>
+          <t>0,13; 3,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,33</t>
+          <t>-0,88; 1,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,56</t>
+          <t>-3,23; 3,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -3,65</t>
+          <t>-8,67; -3,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,6</t>
+          <t>-1,08; 2,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -1,54</t>
+          <t>-4,55; -1,67</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 1106,04</t>
+          <t>-21,0; 1033,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 502,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 49,33</t>
+          <t>-31,44; 43,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-82,07; -46,65</t>
+          <t>-81,9; -47,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 62,38</t>
+          <t>-19,2; 65,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-76,51; -39,02</t>
+          <t>-76,54; -37,49</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,75</t>
+          <t>0,1; 5,12</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -0,66</t>
+          <t>-3,87; -0,45</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,86</t>
+          <t>2,99; 8,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,03</t>
+          <t>-2,03; 2,93</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,17</t>
+          <t>2,46; 6,18</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,81</t>
+          <t>-2,23; 0,92</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,32; 170,5</t>
+          <t>-1,39; 181,97</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-80,85; -22,38</t>
+          <t>-79,25; -11,52</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>37,06; 173,99</t>
+          <t>38,35; 176,61</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 61,34</t>
+          <t>-25,69; 56,87</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>41,32; 145,43</t>
+          <t>40,85; 145,81</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 19,79</t>
+          <t>-37,81; 22,59</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,24; 1,26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,52</t>
+          <t>-1,73; -0,51</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,88</t>
+          <t>-1,87; 0,89</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -3,3</t>
+          <t>-5,34; -3,15</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,77</t>
+          <t>-0,68; 0,85</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,06</t>
+          <t>-3,26; -1,96</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 74,54</t>
+          <t>-11,05; 70,85</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -30,29</t>
+          <t>-69,95; -27,59</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 12,49</t>
+          <t>-21,45; 12,06</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -45,11</t>
+          <t>-63,85; -44,43</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 16,69</t>
+          <t>-12,77; 18,75</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-62,65; -45,22</t>
+          <t>-61,9; -44,32</t>
         </is>
       </c>
     </row>
